--- a/repswitch_fam.xlsx
+++ b/repswitch_fam.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC050766-779F-465C-A416-AD259EB436C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D9C538-CD46-4BDE-BF1E-476EDCA2A314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="600" windowWidth="13620" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>image</t>
   </si>
@@ -41,26 +41,203 @@
     <t>correctAns</t>
   </si>
   <si>
-    <t>respModal</t>
-  </si>
-  <si>
-    <t>sequence</t>
-  </si>
-  <si>
-    <t>target</t>
-  </si>
-  <si>
-    <t>repSwitch</t>
-  </si>
-  <si>
-    <t>frameColour</t>
+    <t>muñeca</t>
+  </si>
+  <si>
+    <t>vaso</t>
+  </si>
+  <si>
+    <t>caracol</t>
+  </si>
+  <si>
+    <t>cazador</t>
+  </si>
+  <si>
+    <t>pintor</t>
+  </si>
+  <si>
+    <t>puente</t>
+  </si>
+  <si>
+    <t>pavo</t>
+  </si>
+  <si>
+    <t>falda</t>
+  </si>
+  <si>
+    <t>aguja</t>
+  </si>
+  <si>
+    <t>cartero</t>
+  </si>
+  <si>
+    <t>mano</t>
+  </si>
+  <si>
+    <t>conejo</t>
+  </si>
+  <si>
+    <t>granja</t>
+  </si>
+  <si>
+    <t>vaca</t>
+  </si>
+  <si>
+    <t>iglesia</t>
+  </si>
+  <si>
+    <t>cabra</t>
+  </si>
+  <si>
+    <t>babero</t>
+  </si>
+  <si>
+    <t>fresa</t>
+  </si>
+  <si>
+    <t>puño</t>
+  </si>
+  <si>
+    <t>bombero</t>
+  </si>
+  <si>
+    <t>cesta</t>
+  </si>
+  <si>
+    <t>cuerda</t>
+  </si>
+  <si>
+    <t>manzana</t>
+  </si>
+  <si>
+    <t>guante</t>
+  </si>
+  <si>
+    <t>miel</t>
+  </si>
+  <si>
+    <t>tiza</t>
+  </si>
+  <si>
+    <t>oveja</t>
+  </si>
+  <si>
+    <t>vestido</t>
+  </si>
+  <si>
+    <t>camisa</t>
+  </si>
+  <si>
+    <t>baño</t>
+  </si>
+  <si>
+    <t>pierna</t>
+  </si>
+  <si>
+    <t>boca</t>
+  </si>
+  <si>
+    <t>REPSWITCH1/PICTURE_128.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1/PICTURE_142.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1/PICTURE_152.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1/PICTURE_16.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1/PICTURE_175.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1/PICTURE_178.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1/PICTURE_19.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1/PICTURE_199.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1/PICTURE_235.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1/PICTURE_242.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1/PICTURE_264.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1/PICTURE_271.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1/PICTURE_30.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1/PICTURE_319.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1/PICTURE_320.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1/PICTURE_354.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1/PICTURE_377.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1/PICTURE_381.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1/PICTURE_411.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1/PICTURE_48.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1/PICTURE_487.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1/PICTURE_517.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1/PICTURE_552.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1/PICTURE_576.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1/PICTURE_610.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1/PICTURE_622.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1/PICTURE_636.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1/PICTURE_664.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1/PICTURE_687.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1/PICTURE_719.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1/PICTURE_8.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1/PICTURE_91.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,44 +259,13 @@
       <family val="2"/>
       <charset val="161"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="161"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="161"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor theme="6" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor theme="6" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -143,33 +289,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -177,27 +300,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <b val="0"/>
@@ -217,9 +320,8 @@
         <scheme val="none"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="6" tint="0.79998168889431442"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -242,74 +344,10 @@
         <scheme val="none"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="6" tint="0.79998168889431442"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="6" tint="0.79998168889431442"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <border outline="0">
@@ -336,6 +374,11 @@
         <charset val="161"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border outline="0">
@@ -383,16 +426,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{43FE2DE5-4E34-47B2-85F0-491C1C8CAF49}" name="Table2" displayName="Table2" ref="A1:G21" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
-  <autoFilter ref="A1:G21" xr:uid="{43FE2DE5-4E34-47B2-85F0-491C1C8CAF49}"/>
-  <tableColumns count="7">
-    <tableColumn id="5" xr3:uid="{6CBB8A9A-AE86-4817-AC1A-FE40B23AB547}" name="image" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{95683CFC-6110-4DDD-B9BA-877A8BD98DCA}" name="correctAns" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{E8C28582-0617-4F06-8AC7-EFAC1D7A8D52}" name="respModal" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{23365C8F-DE7A-46FA-B3DB-084BE9F8B7B3}" name="frameColour" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{20782061-69F9-4B4A-8529-949463D1E4FC}" name="repSwitch" dataDxfId="1"/>
-    <tableColumn id="1" xr3:uid="{55E599A2-8042-4FC9-884D-47F74962CA7B}" name="sequence" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{9E8F8608-00E0-4E1F-9B24-0C65CCC094B8}" name="target"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{43FE2DE5-4E34-47B2-85F0-491C1C8CAF49}" name="Table2" displayName="Table2" ref="A1:B33" totalsRowShown="0" headerRowDxfId="5" dataDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="2">
+  <autoFilter ref="A1:B33" xr:uid="{43FE2DE5-4E34-47B2-85F0-491C1C8CAF49}"/>
+  <tableColumns count="2">
+    <tableColumn id="5" xr3:uid="{6CBB8A9A-AE86-4817-AC1A-FE40B23AB547}" name="image" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{95683CFC-6110-4DDD-B9BA-877A8BD98DCA}" name="correctAns" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -719,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558F9B87-26D4-45DE-8FE2-82B28F57E788}">
-  <dimension ref="A1:O97"/>
+  <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -730,338 +768,414 @@
     <col min="1" max="1" width="27.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.109375" customWidth="1"/>
     <col min="3" max="4" width="19.5546875" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" style="16" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" style="3" customWidth="1"/>
     <col min="10" max="11" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="F1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="4"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="7"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="4"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="4"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="2"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="12"/>
+      <c r="F6"/>
       <c r="G6" s="2"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="7"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="12"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8"/>
       <c r="G8" s="2"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="4"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="12"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10"/>
       <c r="G10" s="2"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="4"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="7"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="4"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="4"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="12"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14"/>
       <c r="G14" s="2"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="7"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="2"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="12"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16"/>
       <c r="G16" s="2"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="4"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="4"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="7"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="4"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
       <c r="F22"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
       <c r="F23"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
       <c r="F24"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
       <c r="F25"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
       <c r="F26"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
       <c r="F27"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
       <c r="F28"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
       <c r="F29"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
       <c r="F30"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
       <c r="F31"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
       <c r="F32"/>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
       <c r="F33"/>
     </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F34"/>
     </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F35"/>
     </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F36"/>
     </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F37"/>
     </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F38"/>
     </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F39"/>
     </row>
-    <row r="40" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F40"/>
     </row>
-    <row r="41" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F41"/>
     </row>
-    <row r="42" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F42"/>
     </row>
-    <row r="43" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F43"/>
     </row>
-    <row r="44" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F44"/>
     </row>
-    <row r="45" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F45"/>
     </row>
-    <row r="46" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F46"/>
     </row>
-    <row r="47" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F47"/>
     </row>
-    <row r="48" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F48"/>
     </row>
     <row r="49" spans="6:6" x14ac:dyDescent="0.3">
@@ -1213,8 +1327,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/repswitch_fam.xlsx
+++ b/repswitch_fam.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1D658D-EAE9-4C52-819A-4CD42D8FBD7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8773DDB1-8218-45E8-AC67-3D7927DA35AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5400" yWindow="600" windowWidth="16284" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="7" r:id="rId1"/>
@@ -86,24 +86,12 @@
     <t>iglesia</t>
   </si>
   <si>
-    <t>cabra</t>
-  </si>
-  <si>
-    <t>babero</t>
-  </si>
-  <si>
     <t>fresa</t>
   </si>
   <si>
-    <t>puño</t>
-  </si>
-  <si>
     <t>bombero</t>
   </si>
   <si>
-    <t>cesta</t>
-  </si>
-  <si>
     <t>cuerda</t>
   </si>
   <si>
@@ -116,15 +104,9 @@
     <t>miel</t>
   </si>
   <si>
-    <t>tiza</t>
-  </si>
-  <si>
     <t>oveja</t>
   </si>
   <si>
-    <t>vestido</t>
-  </si>
-  <si>
     <t>camisa</t>
   </si>
   <si>
@@ -185,24 +167,12 @@
     <t>REPSWITCH1_Fam/PICTURE_320.png</t>
   </si>
   <si>
-    <t>REPSWITCH1_Fam/PICTURE_354.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Fam/PICTURE_377.png</t>
-  </si>
-  <si>
     <t>REPSWITCH1_Fam/PICTURE_381.png</t>
   </si>
   <si>
-    <t>REPSWITCH1_Fam/PICTURE_411.png</t>
-  </si>
-  <si>
     <t>REPSWITCH1_Fam/PICTURE_48.png</t>
   </si>
   <si>
-    <t>REPSWITCH1_Fam/PICTURE_487.png</t>
-  </si>
-  <si>
     <t>REPSWITCH1_Fam/PICTURE_517.png</t>
   </si>
   <si>
@@ -215,15 +185,9 @@
     <t>REPSWITCH1_Fam/PICTURE_610.png</t>
   </si>
   <si>
-    <t>REPSWITCH1_Fam/PICTURE_622.png</t>
-  </si>
-  <si>
     <t>REPSWITCH1_Fam/PICTURE_636.png</t>
   </si>
   <si>
-    <t>REPSWITCH1_Fam/PICTURE_664.png</t>
-  </si>
-  <si>
     <t>REPSWITCH1_Fam/PICTURE_687.png</t>
   </si>
   <si>
@@ -234,13 +198,49 @@
   </si>
   <si>
     <t>REPSWITCH1_Fam/PICTURE_91.png</t>
+  </si>
+  <si>
+    <t>oreja</t>
+  </si>
+  <si>
+    <t>traje</t>
+  </si>
+  <si>
+    <t>goma</t>
+  </si>
+  <si>
+    <t>braga</t>
+  </si>
+  <si>
+    <t>pulpo</t>
+  </si>
+  <si>
+    <t>puerta</t>
+  </si>
+  <si>
+    <t>REPSWITCH1_Fam/PICTURE_35.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1_Fam/PICTURE_135.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1_Fam/PICTURE_464.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1_Fam/PICTURE_545.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1_Fam/PICTURE_728.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1_Fam/PICTURE_546.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,6 +255,13 @@
       <family val="2"/>
       <charset val="161"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -264,7 +271,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -301,15 +308,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -815,13 +832,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F097A394-F70B-4BA9-8F65-A485BAED673C}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -835,7 +852,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -843,7 +860,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -851,7 +868,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
@@ -859,7 +876,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -867,7 +884,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
@@ -875,18 +892,18 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
@@ -894,202 +911,202 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/repswitch_fam.xlsx
+++ b/repswitch_fam.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8773DDB1-8218-45E8-AC67-3D7927DA35AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9E6DB8-32D2-438C-B481-AC1C356A7BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="600" windowWidth="16284" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="7764" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="7" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>image</t>
   </si>
@@ -234,13 +234,55 @@
   </si>
   <si>
     <t>REPSWITCH1_Fam/PICTURE_546.png</t>
+  </si>
+  <si>
+    <t>rana</t>
+  </si>
+  <si>
+    <t>nube</t>
+  </si>
+  <si>
+    <t>toro</t>
+  </si>
+  <si>
+    <t>gafas</t>
+  </si>
+  <si>
+    <t>reina</t>
+  </si>
+  <si>
+    <t>mesa</t>
+  </si>
+  <si>
+    <t>sirena</t>
+  </si>
+  <si>
+    <t>REPSWITCH1_Practice/PICTURE_612.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1_Practice/PICTURE_599.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1_Practice/PICTURE_570.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1_Practice/PICTURE_733.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1_Practice/PICTURE_614.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1_Practice/PICTURE_110.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1_Practice/PICTURE_12.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,6 +304,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -271,7 +319,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -317,16 +365,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,8 +563,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0096A52A-5BE6-44CE-8F3A-D6837A65D305}" name="Table1" displayName="Table1" ref="A1:B33" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
-  <autoFilter ref="A1:B33" xr:uid="{0096A52A-5BE6-44CE-8F3A-D6837A65D305}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0096A52A-5BE6-44CE-8F3A-D6837A65D305}" name="Table1" displayName="Table1" ref="A1:B40" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+  <autoFilter ref="A1:B40" xr:uid="{0096A52A-5BE6-44CE-8F3A-D6837A65D305}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{34B3F00C-5A8F-4E3A-99C8-A728A5DF5F8C}" name="image" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{6E34E39B-FEE1-4FCA-8F3D-1FF456769306}" name="correctAns" dataDxfId="0"/>
@@ -510,9 +574,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -550,9 +614,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -585,26 +649,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -637,26 +684,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -830,10 +860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F097A394-F70B-4BA9-8F65-A485BAED673C}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1109,6 +1139,62 @@
         <v>9</v>
       </c>
     </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/repswitch_fam.xlsx
+++ b/repswitch_fam.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9E6DB8-32D2-438C-B481-AC1C356A7BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DAA236-6AA4-4786-A00A-00ABAF8EFC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="7764" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13356" yWindow="804" windowWidth="9708" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="7" r:id="rId1"/>
@@ -104,9 +104,6 @@
     <t>miel</t>
   </si>
   <si>
-    <t>oveja</t>
-  </si>
-  <si>
     <t>camisa</t>
   </si>
   <si>
@@ -116,9 +113,6 @@
     <t>pierna</t>
   </si>
   <si>
-    <t>boca</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -185,9 +179,6 @@
     <t>REPSWITCH1_Fam/PICTURE_610.png</t>
   </si>
   <si>
-    <t>REPSWITCH1_Fam/PICTURE_636.png</t>
-  </si>
-  <si>
     <t>REPSWITCH1_Fam/PICTURE_687.png</t>
   </si>
   <si>
@@ -197,9 +188,6 @@
     <t>REPSWITCH1_Fam/PICTURE_8.png</t>
   </si>
   <si>
-    <t>REPSWITCH1_Fam/PICTURE_91.png</t>
-  </si>
-  <si>
     <t>oreja</t>
   </si>
   <si>
@@ -209,15 +197,9 @@
     <t>goma</t>
   </si>
   <si>
-    <t>braga</t>
-  </si>
-  <si>
     <t>pulpo</t>
   </si>
   <si>
-    <t>puerta</t>
-  </si>
-  <si>
     <t>REPSWITCH1_Fam/PICTURE_35.png</t>
   </si>
   <si>
@@ -227,15 +209,9 @@
     <t>REPSWITCH1_Fam/PICTURE_464.png</t>
   </si>
   <si>
-    <t>REPSWITCH1_Fam/PICTURE_545.png</t>
-  </si>
-  <si>
     <t>REPSWITCH1_Fam/PICTURE_728.png</t>
   </si>
   <si>
-    <t>REPSWITCH1_Fam/PICTURE_546.png</t>
-  </si>
-  <si>
     <t>rana</t>
   </si>
   <si>
@@ -276,6 +252,30 @@
   </si>
   <si>
     <t>REPSWITCH1_Practice/PICTURE_12.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1_Fam/PICTURE_169.png</t>
+  </si>
+  <si>
+    <t>espalda</t>
+  </si>
+  <si>
+    <t>regalo</t>
+  </si>
+  <si>
+    <t>REPSWITCH1_Fam/PICTURE_338.png</t>
+  </si>
+  <si>
+    <t>cerdo</t>
+  </si>
+  <si>
+    <t>REPSWITCH1_Fam/PICTURE_446.png</t>
+  </si>
+  <si>
+    <t>taza</t>
+  </si>
+  <si>
+    <t>REPSWITCH1_Fam/PICTURE_498.png</t>
   </si>
 </sst>
 </file>
@@ -388,9 +388,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -862,13 +862,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F097A394-F70B-4BA9-8F65-A485BAED673C}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -882,317 +882,317 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
+      <c r="A3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
+        <v>73</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>12</v>
+      <c r="A11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>20</v>
+        <v>76</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>21</v>
+      <c r="A20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>23</v>
+        <v>78</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>24</v>
+      <c r="A23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>26</v>
+        <v>80</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>27</v>
+      <c r="A26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>55</v>
+      <c r="A27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>56</v>
+      <c r="A28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>57</v>
+      <c r="A29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>58</v>
+      <c r="A30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>59</v>
+      <c r="A31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B34" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B35" s="5" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>73</v>
+      <c r="B40" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/repswitch_fam.xlsx
+++ b/repswitch_fam.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DAA236-6AA4-4786-A00A-00ABAF8EFC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17B890C-BFF4-4A16-830D-32AD17BCFB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13356" yWindow="804" windowWidth="9708" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="7" r:id="rId1"/>
@@ -291,18 +291,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="161"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -382,15 +383,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,6 +411,32 @@
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -445,6 +471,7 @@
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
+        <charset val="161"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -486,30 +513,6 @@
           <color theme="6" tint="0.39997558519241921"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border outline="0">
@@ -563,11 +566,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0096A52A-5BE6-44CE-8F3A-D6837A65D305}" name="Table1" displayName="Table1" ref="A1:B40" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0096A52A-5BE6-44CE-8F3A-D6837A65D305}" name="Table1" displayName="Table1" ref="A1:B40" totalsRowShown="0" headerRowDxfId="6" dataDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A1:B40" xr:uid="{0096A52A-5BE6-44CE-8F3A-D6837A65D305}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{34B3F00C-5A8F-4E3A-99C8-A728A5DF5F8C}" name="image" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{6E34E39B-FEE1-4FCA-8F3D-1FF456769306}" name="correctAns" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{34B3F00C-5A8F-4E3A-99C8-A728A5DF5F8C}" name="image" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{6E34E39B-FEE1-4FCA-8F3D-1FF456769306}" name="correctAns" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -863,7 +866,7 @@
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -881,58 +884,58 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D8" t="s">
@@ -940,265 +943,266 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="4" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/repswitch_fam.xlsx
+++ b/repswitch_fam.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17B890C-BFF4-4A16-830D-32AD17BCFB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03002B82-F0B1-4A80-8283-CFDF1AA37CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11688" yWindow="648" windowWidth="11352" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="7" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>image</t>
   </si>
@@ -276,18 +276,62 @@
   </si>
   <si>
     <t>REPSWITCH1_Fam/PICTURE_498.png</t>
+  </si>
+  <si>
+    <t>espejo</t>
+  </si>
+  <si>
+    <t>cadena</t>
+  </si>
+  <si>
+    <t>escoba</t>
+  </si>
+  <si>
+    <t>tronco</t>
+  </si>
+  <si>
+    <t>tenedor</t>
+  </si>
+  <si>
+    <t>columna</t>
+  </si>
+  <si>
+    <t>REPSWITCH1_Practice/PICTURE_340.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1_Practice/PICTURE_391.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1_Practice/PICTURE_590.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1_Practice/PICTURE_646.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1_Practice/PICTURE_663.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1_Practice/PICTURE_673.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -383,44 +427,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -515,6 +537,31 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color theme="6"/>
@@ -566,11 +613,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0096A52A-5BE6-44CE-8F3A-D6837A65D305}" name="Table1" displayName="Table1" ref="A1:B40" totalsRowShown="0" headerRowDxfId="6" dataDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:B40" xr:uid="{0096A52A-5BE6-44CE-8F3A-D6837A65D305}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0096A52A-5BE6-44CE-8F3A-D6837A65D305}" name="Table1" displayName="Table1" ref="A1:B46" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+  <autoFilter ref="A1:B46" xr:uid="{0096A52A-5BE6-44CE-8F3A-D6837A65D305}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{34B3F00C-5A8F-4E3A-99C8-A728A5DF5F8C}" name="image" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{6E34E39B-FEE1-4FCA-8F3D-1FF456769306}" name="correctAns" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{34B3F00C-5A8F-4E3A-99C8-A728A5DF5F8C}" name="image" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{6E34E39B-FEE1-4FCA-8F3D-1FF456769306}" name="correctAns" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -863,10 +910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F097A394-F70B-4BA9-8F65-A485BAED673C}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1198,6 +1245,54 @@
         <v>65</v>
       </c>
     </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/repswitch_fam.xlsx
+++ b/repswitch_fam.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03002B82-F0B1-4A80-8283-CFDF1AA37CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F9268D-D016-49A1-B5B6-2F499A1A0B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11688" yWindow="648" windowWidth="11352" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="7" r:id="rId1"/>
@@ -233,27 +233,6 @@
     <t>sirena</t>
   </si>
   <si>
-    <t>REPSWITCH1_Practice/PICTURE_612.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Practice/PICTURE_599.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Practice/PICTURE_570.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Practice/PICTURE_733.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Practice/PICTURE_614.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Practice/PICTURE_110.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Practice/PICTURE_12.png</t>
-  </si>
-  <si>
     <t>REPSWITCH1_Fam/PICTURE_169.png</t>
   </si>
   <si>
@@ -296,34 +275,63 @@
     <t>columna</t>
   </si>
   <si>
-    <t>REPSWITCH1_Practice/PICTURE_340.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Practice/PICTURE_391.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Practice/PICTURE_590.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Practice/PICTURE_646.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Practice/PICTURE_663.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Practice/PICTURE_673.png</t>
+    <t>REPSWITCH1_Fam/PICTURE_612.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1_Fam/PICTURE_599.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1_Fam/PICTURE_570.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1_Fam/PICTURE_733.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1_Fam/PICTURE_614.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1_Fam/PICTURE_110.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1_Fam/PICTURE_12.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1_Fam/PICTURE_340.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1_Fam/PICTURE_391.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1_Fam/PICTURE_590.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1_Fam/PICTURE_646.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1_Fam/PICTURE_663.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1_Fam/PICTURE_673.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -427,16 +435,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -912,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F097A394-F70B-4BA9-8F65-A485BAED673C}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -972,10 +981,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1071,10 +1080,10 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1095,10 +1104,10 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -1119,10 +1128,10 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -1190,16 +1199,16 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
-        <v>66</v>
+      <c r="A34" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
-        <v>67</v>
+      <c r="A35" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>60</v>
@@ -1207,7 +1216,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>61</v>
@@ -1215,7 +1224,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>62</v>
@@ -1223,7 +1232,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>63</v>
@@ -1231,7 +1240,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>64</v>
@@ -1239,7 +1248,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>65</v>
@@ -1250,7 +1259,7 @@
         <v>87</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -1258,7 +1267,7 @@
         <v>88</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -1266,7 +1275,7 @@
         <v>89</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -1274,7 +1283,7 @@
         <v>90</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -1282,7 +1291,7 @@
         <v>91</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -1290,7 +1299,7 @@
         <v>92</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
